--- a/data/mac_util.xlsx
+++ b/data/mac_util.xlsx
@@ -26,10 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>mult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fp32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LUT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,6 +63,14 @@
   </si>
   <si>
     <t>FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,6 +136,1146 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>multiplier</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>fp32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fp16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fixed32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fixed16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fixed8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fixed4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-934D-464C-B928-74EB9A7079B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>multiplier</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>fp32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fp16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fixed32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fixed16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fixed8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fixed4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-934D-464C-B928-74EB9A7079B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>adder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LUT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>fp32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fp16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fixed32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fixed16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fixed8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fixed4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-934D-464C-B928-74EB9A7079B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>adder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>fp32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fp16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fixed32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fixed16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fixed8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fixed4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-934D-464C-B928-74EB9A7079B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1047289999"/>
+        <c:axId val="1047289583"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1047289999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1047289583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1047289583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1047289999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47631</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,36 +1544,36 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>708</v>
@@ -450,7 +1590,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>221</v>
@@ -467,7 +1607,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1112</v>
@@ -484,7 +1624,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>289</v>
@@ -501,7 +1641,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>75</v>
@@ -518,7 +1658,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>17</v>
@@ -537,5 +1677,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/mac_util.xlsx
+++ b/data/mac_util.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>fp32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,58 @@
   </si>
   <si>
     <t>adder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xilinx Logic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xilinx DSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiply &amp; add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Altera DSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multiply &amp; add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,12 +155,53 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -117,9 +210,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,16 +508,16 @@
                   <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,16 +594,16 @@
                   <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1247,16 +1358,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19056</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>47631</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104781</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1541,23 +1652,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -1571,7 +1684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1588,7 +1701,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1605,7 +1718,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1616,13 +1729,13 @@
         <v>1143</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="E5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1633,13 +1746,13 @@
         <v>301</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1650,13 +1763,13 @@
         <v>80</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1667,13 +1780,458 @@
         <v>20</v>
       </c>
       <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>708</v>
+      </c>
+      <c r="C15">
+        <v>858</v>
+      </c>
+      <c r="D15">
+        <v>430</v>
+      </c>
+      <c r="E15">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>221</v>
+      </c>
+      <c r="C16">
+        <v>303</v>
+      </c>
+      <c r="D16">
+        <v>211</v>
+      </c>
+      <c r="E16">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>1112</v>
+      </c>
+      <c r="C17">
+        <v>1143</v>
+      </c>
+      <c r="D17">
+        <v>64</v>
+      </c>
+      <c r="E17">
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <f>B17+D17</f>
+        <v>1176</v>
+      </c>
+      <c r="G17">
+        <f>C17+E17</f>
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>289</v>
+      </c>
+      <c r="C18">
+        <v>301</v>
+      </c>
+      <c r="D18">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>32</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:G20" si="0">B18+D18</f>
+        <v>321</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="B19">
+        <v>75</v>
+      </c>
+      <c r="C19">
+        <v>80</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>708</v>
+      </c>
+      <c r="C26" s="2">
+        <v>858</v>
+      </c>
+      <c r="D26" s="2">
+        <v>430</v>
+      </c>
+      <c r="E26" s="2">
+        <v>749</v>
+      </c>
+      <c r="F26" s="2">
+        <v>800</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1284</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2">
+        <v>221</v>
+      </c>
+      <c r="C27" s="2">
+        <v>303</v>
+      </c>
+      <c r="D27" s="2">
+        <v>211</v>
+      </c>
+      <c r="E27" s="2">
+        <v>337</v>
+      </c>
+      <c r="F27" s="2">
+        <v>451</v>
+      </c>
+      <c r="G27" s="2">
+        <v>686</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>213</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1112</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1143</v>
+      </c>
+      <c r="D28" s="2">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2">
+        <v>32</v>
+      </c>
+      <c r="F28" s="2">
+        <v>111</v>
+      </c>
+      <c r="G28" s="2">
+        <v>64</v>
+      </c>
+      <c r="H28" s="2">
         <v>4</v>
       </c>
+      <c r="I28" s="2">
+        <v>64</v>
+      </c>
+      <c r="J28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2">
+        <v>289</v>
+      </c>
+      <c r="C29" s="2">
+        <v>301</v>
+      </c>
+      <c r="D29" s="2">
+        <v>16</v>
+      </c>
+      <c r="E29" s="2">
+        <v>16</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2">
+        <v>75</v>
+      </c>
+      <c r="C30" s="2">
+        <v>80</v>
+      </c>
+      <c r="D30" s="2">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2">
+        <v>8</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="2">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B23:E23"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
